--- a/MovieDatabaseProcess/output-spreadsheets/movie-information.xlsx
+++ b/MovieDatabaseProcess/output-spreadsheets/movie-information.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\maggi\Documents\GitHub\rpa-solution\MovieDatabaseProcess\output-spreadsheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EFEDD4C-EC4B-40BB-BA18-9705C0A668F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{302D4B14-972E-41ED-B905-8A029E09B047}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12915" yWindow="2550" windowWidth="11400" windowHeight="11370" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="13260" yWindow="2895" windowWidth="11400" windowHeight="11370" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>Director</t>
   </si>
@@ -34,6 +34,9 @@
   </si>
   <si>
     <t>Steven Spielberg</t>
+  </si>
+  <si>
+    <t>taika waititi</t>
   </si>
 </sst>
 </file>
@@ -351,10 +354,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A3"/>
+  <dimension ref="A1:A4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -374,6 +377,11 @@
         <v>2</v>
       </c>
     </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/MovieDatabaseProcess/output-spreadsheets/movie-information.xlsx
+++ b/MovieDatabaseProcess/output-spreadsheets/movie-information.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\maggi\Documents\GitHub\rpa-solution\MovieDatabaseProcess\output-spreadsheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{302D4B14-972E-41ED-B905-8A029E09B047}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21610F5C-EEC6-4952-923D-F60ECDCDE531}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="13260" yWindow="2895" windowWidth="11400" windowHeight="11370" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,18 +25,21 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>Director</t>
   </si>
   <si>
-    <t>James Cameron</t>
-  </si>
-  <si>
-    <t>Steven Spielberg</t>
+    <t>james cameron</t>
   </si>
   <si>
     <t>taika waititi</t>
+  </si>
+  <si>
+    <t>j. j. abrams</t>
+  </si>
+  <si>
+    <t>steven spielberg</t>
   </si>
 </sst>
 </file>
@@ -354,10 +357,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A4"/>
+  <dimension ref="A1:A5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -367,7 +370,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -380,6 +383,11 @@
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/MovieDatabaseProcess/output-spreadsheets/movie-information.xlsx
+++ b/MovieDatabaseProcess/output-spreadsheets/movie-information.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\maggi\Documents\GitHub\rpa-solution\MovieDatabaseProcess\output-spreadsheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21610F5C-EEC6-4952-923D-F60ECDCDE531}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0F82DB1-40C0-44EF-BE6E-446CDD817D00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="13260" yWindow="2895" windowWidth="11400" windowHeight="11370" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,16 +30,16 @@
     <t>Director</t>
   </si>
   <si>
+    <t>taika waititi</t>
+  </si>
+  <si>
+    <t>christopher nolan</t>
+  </si>
+  <si>
     <t>james cameron</t>
   </si>
   <si>
-    <t>taika waititi</t>
-  </si>
-  <si>
-    <t>j. j. abrams</t>
-  </si>
-  <si>
-    <t>steven spielberg</t>
+    <t>steven speilberg</t>
   </si>
 </sst>
 </file>
@@ -360,7 +360,7 @@
   <dimension ref="A1:A5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -370,14 +370,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">

--- a/MovieDatabaseProcess/output-spreadsheets/movie-information.xlsx
+++ b/MovieDatabaseProcess/output-spreadsheets/movie-information.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25629"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\maggi\Documents\GitHub\rpa-solution\MovieDatabaseProcess\output-spreadsheets\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Blake\Documents\rpa-solution\MovieDatabaseProcess\output-spreadsheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0F82DB1-40C0-44EF-BE6E-446CDD817D00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{203A30E6-EE6F-4C4D-891B-E23FBF5E087C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13260" yWindow="2895" windowWidth="11400" windowHeight="11370" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2730" yWindow="2730" windowWidth="21600" windowHeight="11835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,27 +25,911 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="241">
   <si>
     <t>Director</t>
   </si>
   <si>
-    <t>taika waititi</t>
-  </si>
-  <si>
-    <t>christopher nolan</t>
-  </si>
-  <si>
-    <t>james cameron</t>
-  </si>
-  <si>
-    <t>steven speilberg</t>
+    <t>Release</t>
+  </si>
+  <si>
+    <t>Domestic</t>
+  </si>
+  <si>
+    <t>Worldwide</t>
+  </si>
+  <si>
+    <t>Producer</t>
+  </si>
+  <si>
+    <t>Production company</t>
+  </si>
+  <si>
+    <t>Marty Bowen,Adam Fishbach,Wyck Godfrey,Isaac Klausner,Robert Salerno</t>
+  </si>
+  <si>
+    <t>Smile</t>
+  </si>
+  <si>
+    <t xml:space="preserve">_x000D_
+Paramount Players_x000D_
+</t>
+  </si>
+  <si>
+    <t>The Woman King</t>
+  </si>
+  <si>
+    <t xml:space="preserve">_x000D_
+TriStar Pictures_x000D_
+</t>
+  </si>
+  <si>
+    <t>Don't Worry Darling</t>
+  </si>
+  <si>
+    <t xml:space="preserve">_x000D_
+New Line Cinema_x000D_
+</t>
+  </si>
+  <si>
+    <t>Barbarian</t>
+  </si>
+  <si>
+    <t xml:space="preserve">_x000D_
+BoulderLight Pictures_x000D_
+</t>
+  </si>
+  <si>
+    <t>Avatar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">_x000D_
+Twentieth Century Fox_x000D_
+</t>
+  </si>
+  <si>
+    <t>Spider-Man: No Way Home</t>
+  </si>
+  <si>
+    <t xml:space="preserve">_x000D_
+Columbia Pictures_x000D_
+</t>
+  </si>
+  <si>
+    <t>Pearl</t>
+  </si>
+  <si>
+    <t xml:space="preserve">_x000D_
+A24_x000D_
+</t>
+  </si>
+  <si>
+    <t>See How They Run</t>
+  </si>
+  <si>
+    <t xml:space="preserve">_x000D_
+Searchlight Pictures_x000D_
+</t>
+  </si>
+  <si>
+    <t>Brahmastra Part One: Shiva</t>
+  </si>
+  <si>
+    <t xml:space="preserve">_x000D_
+Dharma Productions_x000D_
+</t>
+  </si>
+  <si>
+    <t>Bros</t>
+  </si>
+  <si>
+    <t xml:space="preserve">_x000D_
+Universal Pictures_x000D_
+</t>
+  </si>
+  <si>
+    <t>Jaws</t>
+  </si>
+  <si>
+    <t xml:space="preserve">_x000D_
+Zanuck/Brown Productions_x000D_
+</t>
+  </si>
+  <si>
+    <t>Lifemark</t>
+  </si>
+  <si>
+    <t xml:space="preserve">_x000D_
+Kendrick Brothers_x000D_
+</t>
+  </si>
+  <si>
+    <t>Ponniyin Selvan: Part I</t>
+  </si>
+  <si>
+    <t xml:space="preserve">_x000D_
+Lyca Productions_x000D_
+</t>
+  </si>
+  <si>
+    <t>Moonage Daydream</t>
+  </si>
+  <si>
+    <t xml:space="preserve">_x000D_
+BMG_x000D_
+</t>
+  </si>
+  <si>
+    <t>Clerks III</t>
+  </si>
+  <si>
+    <t xml:space="preserve">_x000D_
+View Askew Productions_x000D_
+</t>
+  </si>
+  <si>
+    <t>Honk for Jesus. Save Your Soul.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">_x000D_
+Pinky Promise_x000D_
+</t>
+  </si>
+  <si>
+    <t>Gigi &amp; Nate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">_x000D_
+Free Turn_x000D_
+</t>
+  </si>
+  <si>
+    <t>Jeepers Creepers: Reborn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">_x000D_
+Black Hangar Studios_x000D_
+</t>
+  </si>
+  <si>
+    <t>The Good House</t>
+  </si>
+  <si>
+    <t xml:space="preserve">_x000D_
+Amblin Partners_x000D_
+</t>
+  </si>
+  <si>
+    <t>Vikram Vedha</t>
+  </si>
+  <si>
+    <t xml:space="preserve">_x000D_
+Y Not Studios_x000D_
+</t>
+  </si>
+  <si>
+    <t>Running the Bases</t>
+  </si>
+  <si>
+    <t xml:space="preserve">_x000D_
+UP2U Films_x000D_
+</t>
+  </si>
+  <si>
+    <t>Medieval</t>
+  </si>
+  <si>
+    <t xml:space="preserve">_x000D_
+J.B.J. Film_x000D_
+</t>
+  </si>
+  <si>
+    <t>Howl's Moving Castle</t>
+  </si>
+  <si>
+    <t xml:space="preserve">_x000D_
+Buena Vista Home Entertainment_x000D_
+</t>
+  </si>
+  <si>
+    <t>After Ever Happy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">_x000D_
+CalMaple_x000D_
+</t>
+  </si>
+  <si>
+    <t>Star Trek II: The Wrath of Khan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">_x000D_
+Paramount Pictures_x000D_
+</t>
+  </si>
+  <si>
+    <t>Saint Michael Meet the Angel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">_x000D_
+Sonovision_x000D_
+</t>
+  </si>
+  <si>
+    <t>Cuando Sea Joven</t>
+  </si>
+  <si>
+    <t xml:space="preserve">_x000D_
+Globalgate Entertainment_x000D_
+</t>
+  </si>
+  <si>
+    <t>Confess, Fletch</t>
+  </si>
+  <si>
+    <t xml:space="preserve">_x000D_
+Miramax_x000D_
+</t>
+  </si>
+  <si>
+    <t>God's Country</t>
+  </si>
+  <si>
+    <t xml:space="preserve">_x000D_
+Cold Iron Pictures_x000D_
+</t>
+  </si>
+  <si>
+    <t>Railway Children</t>
+  </si>
+  <si>
+    <t xml:space="preserve">_x000D_
+Aquarium Studios_x000D_
+</t>
+  </si>
+  <si>
+    <t>Superspreader</t>
+  </si>
+  <si>
+    <t xml:space="preserve">_x000D_
+Through The Woods_x000D_
+</t>
+  </si>
+  <si>
+    <t>On the Come Up</t>
+  </si>
+  <si>
+    <t>The Silent Twins</t>
+  </si>
+  <si>
+    <t xml:space="preserve">_x000D_
+Kindred Spirit_x000D_
+</t>
+  </si>
+  <si>
+    <t>Hockeyland</t>
+  </si>
+  <si>
+    <t xml:space="preserve">_x000D_
+Northland Films_x000D_
+</t>
+  </si>
+  <si>
+    <t>Goodbye, Don Glees!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">_x000D_
+Madhouse_x000D_
+</t>
+  </si>
+  <si>
+    <t>Unfavorable Odds</t>
+  </si>
+  <si>
+    <t xml:space="preserve">_x000D_
+Owlam Studios_x000D_
+</t>
+  </si>
+  <si>
+    <t>Boblo Boats: A Detroit Ferry Tale</t>
+  </si>
+  <si>
+    <t xml:space="preserve">_x000D_
+Baby Volcano Films_x000D_
+</t>
+  </si>
+  <si>
+    <t>Hold Me Tight</t>
+  </si>
+  <si>
+    <t xml:space="preserve">_x000D_
+Les Films du Poisson_x000D_
+</t>
+  </si>
+  <si>
+    <t>Give Me Five</t>
+  </si>
+  <si>
+    <t xml:space="preserve">_x000D_
+Mokexing Film_x000D_
+</t>
+  </si>
+  <si>
+    <t>Vesper</t>
+  </si>
+  <si>
+    <t xml:space="preserve">_x000D_
+Rumble Fish Productions_x000D_
+</t>
+  </si>
+  <si>
+    <t>Loving Highsmith</t>
+  </si>
+  <si>
+    <t xml:space="preserve">_x000D_
+Ensemble Films_x000D_
+</t>
+  </si>
+  <si>
+    <t>Lumpia with a Vengeance</t>
+  </si>
+  <si>
+    <t xml:space="preserve">_x000D_
+Kid Heroes Productions_x000D_
+</t>
+  </si>
+  <si>
+    <t>Carnal Knowledge</t>
+  </si>
+  <si>
+    <t xml:space="preserve">_x000D_
+Embassy Pictures_x000D_
+</t>
+  </si>
+  <si>
+    <t>Riotsville, U.S.A.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">_x000D_
+Arch + Bow Films_x000D_
+</t>
+  </si>
+  <si>
+    <t>Buried: The 1982 Alpine Meadows Avalanche</t>
+  </si>
+  <si>
+    <t xml:space="preserve">_x000D_
+ACE Content_x000D_
+</t>
+  </si>
+  <si>
+    <t>The African Desperate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">_x000D_
+Ways &amp; Means_x000D_
+</t>
+  </si>
+  <si>
+    <t>Casablanca Beats</t>
+  </si>
+  <si>
+    <t xml:space="preserve">_x000D_
+Les Films du Nouveau Monde_x000D_
+</t>
+  </si>
+  <si>
+    <t>Mysterious Circumstance: The Death of Meriwether Lewis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">_x000D_
+Six Shooter Studios_x000D_
+</t>
+  </si>
+  <si>
+    <t>Young Plato</t>
+  </si>
+  <si>
+    <t xml:space="preserve">_x000D_
+Clin d'oeil Films_x000D_
+</t>
+  </si>
+  <si>
+    <t>Wolf Pack</t>
+  </si>
+  <si>
+    <t xml:space="preserve">_x000D_
+Beijing Spring and Autumn Cinemas Television Culture Communication_x000D_
+</t>
+  </si>
+  <si>
+    <t>My Imaginary Country</t>
+  </si>
+  <si>
+    <t xml:space="preserve">_x000D_
+Arte France Cinéma_x000D_
+</t>
+  </si>
+  <si>
+    <t>Sirens</t>
+  </si>
+  <si>
+    <t xml:space="preserve">_x000D_
+Animal Pictures_x000D_
+</t>
+  </si>
+  <si>
+    <t>About Fate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">_x000D_
+Aldamisa Entertainment_x000D_
+</t>
+  </si>
+  <si>
+    <t>Burial</t>
+  </si>
+  <si>
+    <t xml:space="preserve">_x000D_
+Stigma Films_x000D_
+</t>
+  </si>
+  <si>
+    <t>The Story of Film: A New Generation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">_x000D_
+Hopscotch Films_x000D_
+</t>
+  </si>
+  <si>
+    <t>Saloum</t>
+  </si>
+  <si>
+    <t xml:space="preserve">_x000D_
+Lacmé_x000D_
+</t>
+  </si>
+  <si>
+    <t>Carmen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">_x000D_
+Falkun Films_x000D_
+</t>
+  </si>
+  <si>
+    <t>Tucker: The Man and His Dream</t>
+  </si>
+  <si>
+    <t xml:space="preserve">_x000D_
+Lucasfilm_x000D_
+</t>
+  </si>
+  <si>
+    <t>Carp-e Diem</t>
+  </si>
+  <si>
+    <t xml:space="preserve">_x000D_
+Mad Wife Productions I_x000D_
+</t>
+  </si>
+  <si>
+    <t>The Modern Way</t>
+  </si>
+  <si>
+    <t xml:space="preserve">_x000D_
+Anxious Eddy Pictures_x000D_
+</t>
+  </si>
+  <si>
+    <t>B'Twixt Now and Sunrise</t>
+  </si>
+  <si>
+    <t xml:space="preserve">_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Parker Finn
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Gina Prince-Bythewood
+</t>
+  </si>
+  <si>
+    <t>Maria Bello,Dale Butler,Viola Davis,Peter McAleese,Cathy Schulman,Julius Tennon</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Olivia Wilde
+</t>
+  </si>
+  <si>
+    <t>Richard Brener,Catherine Hardwicke,Celia Khong,Roy Lee,Alex G. Scott,Katie Silberman,Carey Van Dyke,Shane Van Dyke,Olivia Wilde,Miri Yoon</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Zach Cregger
+</t>
+  </si>
+  <si>
+    <t>Chris Abernathy,Danny Chan,Elitsa Dimitrova,Ivan Doykov,Alex Lebovici,Roy Lee,Natalie Lehmann,J.D. Lifshitz,Raphael Margules,Arnon Milchan,Yariv Milchan,Tracy Rosenblum,Michael Schaefer,Bill Skarsgård,Alana Wright</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> James Cameron
+</t>
+  </si>
+  <si>
+    <t>Brooke Breton,James Cameron,Laeta Kalogridis,Jon Landau,Josh McLaglen,Janace Tashjian,Peter M. Tobyansen,Colin Wilson</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Jon Watts
+</t>
+  </si>
+  <si>
+    <t>Victoria Alonso,Avi Arad,Mitchell Bell,Chris Buongiorno,Louis D'Esposito,Kevin Feige,Emily Fong,Rachel O'Connor,Amy Pascal,JoAnn Perritano,Matt Tolmach,David H. Venghaus Jr.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ti West
+</t>
+  </si>
+  <si>
+    <t>Jared Connon,Kid Cudi,Dennis Cummings,Mia Goth,Jacob Jaffke,Harrison Kreiss,Ashley Levinson,Sam Levinson,Karina Manashil,Peter Phok,Kevin Turen,Ti West</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Tom George
+</t>
+  </si>
+  <si>
+    <t>Gina Carter,Thomas Darby-Evans,Marie Dong,Damian Jones</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ayan Mukerji
+</t>
+  </si>
+  <si>
+    <t>Marijke Desouza,Valentin Dimitrov,Karan Johar,Ranbir Kapoor,Namit Malhotra,Ayan Mukerji,Alexander Peytchev</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Nicholas Stoller
+</t>
+  </si>
+  <si>
+    <t>Judd Apatow,Guy Branum,Josh Church,Billy Eichner,Karl Frankenfield,Ciara Pavia,Nicholas Stoller</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Steven Spielberg
+</t>
+  </si>
+  <si>
+    <t>David Brown,Richard D. Zanuck</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Kevin Peeples
+</t>
+  </si>
+  <si>
+    <t>Aaron Burns,Larry Frenzel,Alex Kendrick,Shannon Kendrick,Stephen Kendrick,Jim McBride,Brian Mitchell,Chad Price,Bill Reeves,Justin Tolley</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Mani Ratnam
+</t>
+  </si>
+  <si>
+    <t>Zaid Ali,Zohaib Ali,Siva Ananth,John Milton Branton,Rhea Kongara,Bejoy Nambiar,Mani Ratnam,Barani Sakthivel,Aasheesha Srinivasan,A. Subaskaran,Suhasini</t>
+  </si>
+  <si>
+    <t>Brett Morgen</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Kevin Smith
+</t>
+  </si>
+  <si>
+    <t>Jeff Anderson,Chelsey Cole,Liz Destro,David Gendron,Matthew Helderman,Amy Jarvela,Ali Jazayeri,Daniel McGilvray,Jordan Monsanto,Ernest O'Donnell,Brian O'Halloran,Jennifer Schwalbach Smith,Kevin Smith,Luke Taylor</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Adamma Ebo
+</t>
+  </si>
+  <si>
+    <t>Sterling K. Brown,Jessamine Burgum,Matthew R. Cooper,Amandla Crichlow,Kara Durrett,Adanne Ebo,Dana Gills,Will Greenfield,Carolina Groppa,Regina Hall,Daniel Kaluuya,Lucy Keith,Gerry Pass,Jordan Peele,Rowan Riley,Win Rosenfeld</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Nick Hamm
+</t>
+  </si>
+  <si>
+    <t>Scott E. Anderson,René Besson,Lauren Cox,Nick Drew,Jon Hamm,Nick Hamm,Elizabeth Littlefield,Valerie Pappas Llauro,Piers Tempest</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Timo Vuorensola
+</t>
+  </si>
+  <si>
+    <t>Terry Bird,Lee Broda,Alastair Burlingham,Suraj Gohill,Carey Kurtin,Matthew Kurtin,Seth Needle,Michael Ohoven,Elizabeth Primm,Gary Raskin,Jake Seal,Jamie R. Thompson</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Maya Forbes
+</t>
+  </si>
+  <si>
+    <t>Holly Bario,Erika Hampson,Robert Kessel,Christos V. Konstantakopoulos,Jane Rosenthal,Aaron Ryder,Steve Samuels,Jeff Skoll,Berry Welsh</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Gayatri
+</t>
+  </si>
+  <si>
+    <t>Vivek b Agrawal,Alex Anthony Fernandes,Ghanteshwar T. Guru,Bhushan Kumar,Keshav Purushot,Chakravarthy Ramachandra,S. Sashikanth,Anshul Talwar</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Marty Roberts
+</t>
+  </si>
+  <si>
+    <t>Robert C. Bigelow,Shelley Irene Dall,Clavey Mary,Kim Percival,Marty Roberts,Kelly Andrea Rubin,Johnnie Ray Scroggins,Gieava Stinchcomb,Jimmy Womble</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Petr Jákl
+</t>
+  </si>
+  <si>
+    <t>Martin J. Barab,Kevin Bernhardt,Pam Dixon,Cassian Elwes,Arianne Fraser,Petr Jakl Sr.,Daniel Jaros,Petr Jákl,Alena Jáklová,Viktor Kristof,Stuart Manashil,Delphine Perrier</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Hayao Miyazaki
+</t>
+  </si>
+  <si>
+    <t>Rick Dempsey,Tomohiko Ishii,John Lasseter,Ned Lott,Hayao Miyazaki,Toshio Suzuki</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Castille Landon
+</t>
+  </si>
+  <si>
+    <t>Mark Canton,Nicolas Chartier,Jonathan Deckter,Morgan Emmery,Hero Fiennes Tiffin,Jennifer Gibgot,Eric Lehrman,Aron Levitz,Jean-Charles Levy,Peter Mechkoff,Andrew Panay,Brian Pitt,Bob Shapiro,Courtney Solomon</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Nicholas Meyer
+</t>
+  </si>
+  <si>
+    <t>Harve Bennett,William F. Phillips,Robert Sallin</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Wincenty Podobinski
+</t>
+  </si>
+  <si>
+    <t>Oscar Delgado,Wincenty Podobinski</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Raúl Martínez
+</t>
+  </si>
+  <si>
+    <t>Eugenio Derbez,Ben Odell,Avelino Rodríguez,Zack Schiller,Dylan Sellers</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Greg Mottola
+</t>
+  </si>
+  <si>
+    <t>Bill Block,Andrew Golov,Jon Hamm,Mark Kamine,David List,Greg Mottola,Connie Tavel,Thomas Zadra</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Julian Higgins
+</t>
+  </si>
+  <si>
+    <t>Miranda Bailey,Jason Beck,Mark Bennett,Halee Bernard,Anthony Ciardelli,Dwjuan F. Fox,Julian Higgins,Amanda Marshall,Shaye Ogbonna,Colin Scott</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Morgan Matthews
+</t>
+  </si>
+  <si>
+    <t>Jamie Harvey,Steve Newton,Jemma Rodgers</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Josh Franer
+</t>
+  </si>
+  <si>
+    <t>Josh Franer</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Sanaa Lathan
+</t>
+  </si>
+  <si>
+    <t>Timothy M. Bourne,Marty Bowen,John Fischer,Wyck Godfrey,Isaac Klausner,Jay Marcus,Rapsody,Robert Teitel,Angie Thomas,Angie Thomas,George Tillman Jr.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Agnieszka Smoczynska
+</t>
+  </si>
+  <si>
+    <t>Katie Anderson,Sebastian Barker,Jake Carter,Saskia Gigi Duff,Oli Falcon,Anita Gou,Trevor Groth,Adam Gudell,Joshua Horsfield,Tamara Lawrance,Charlie Morrison,Ben Pugh,Ewa Puszczynska,Michael Reuter,Beata Rzezniczek,Andrea Seigel,Klaudia Smieja,Bogna Szewczyk,Alicia Van Couvering,Marjorie Wallace,Letitia Wright,Cobbie Yates</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Tommy Haines
+</t>
+  </si>
+  <si>
+    <t>J.T. Haines,Tommy Haines,Carson Kipfer,Andrew Sherburne</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Atsuko Ishizuka
+</t>
+  </si>
+  <si>
+    <t>Anjali Kunapaneni</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Michael A. Pinckney
+</t>
+  </si>
+  <si>
+    <t>Curshion Jones,Dejorian Moore,Larry Sheffield,Larry L. Sheffield,Corey Toney,Leonard Toth,Edna White,Tony D. White</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Aaron Schillinger
+</t>
+  </si>
+  <si>
+    <t>Steve Bannatyne,David Fabelo,Mike Madigan,Peter Monro,Jayil Pak,Matthew Peach,Isabel Sandoval,Aaron Schillinger,Jason Wehling</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Mathieu Amalric
+</t>
+  </si>
+  <si>
+    <t>Garance Cosimano,Yaël Fogiel,Laetitia Gonzalez,Olivier Père,Felix von Boehm</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Luan Zhang
+</t>
+  </si>
+  <si>
+    <t>Wei Wang</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Kristina Buozyte
+</t>
+  </si>
+  <si>
+    <t>Jon Vangdal Aamaas,Louis Balsan,Kristina Buozyte,Arturas Dvinelis,Nick Ford,Cécile Gaget,Rj Hendricks,Daiva Jovaisiene,Asta Liukaityte,Guillaume Natas,Alexis Perrin,Sébastien Raybaud,Benoit Roland,Thomas Schober,Mike Shema,Florent Steiner,Nabil Ben Yadir,Vitalijus Zukas</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Eva Vitija
+</t>
+  </si>
+  <si>
+    <t>Carl-Ludwig Rettinger,Lino Rettinger,Franziska Sonder,Maurizius Staerkle-Drux</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Patricio Ginelsa
+</t>
+  </si>
+  <si>
+    <t>Carlos Baon,Earl Baylon,A.J. Calomay,Liza Cavan,Lisa Chong,Rey Cuerdo,LeRoid David,Miki Gerelhuyag,Darriel Ginelsa,Melanie Ginelsa,Patricio Ginelsa,Lawrence Iriarte,Randal Kamradt,Jeff Lam,Rachel Liu,Richelle Mirador Mas,Brian Monsayac,Mark Muñoz,Rheena Muñoz,Emily Norovsambuu,Gerald Pilare,Lillian Prijoles,Justin Quizon,Amrit Singh,Varinder Singh</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Mike Nichols
+</t>
+  </si>
+  <si>
+    <t>Joseph E. Levine,Mike Nichols,Clive Reed</t>
+  </si>
+  <si>
+    <t>Sierra Pettengill</t>
+  </si>
+  <si>
+    <t>Jared Drake</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Martine Syms
+</t>
+  </si>
+  <si>
+    <t>Vic Brooks,Rocket Caleshu,Sadie Coles,Bridget Donahue,Lana Kim,Jonathan Olson,Jett Steiger,Martine Syms</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Nabil Ayouch
+</t>
+  </si>
+  <si>
+    <t>Nabil Ayouch,Amine Benjelloun,Alain Cohen,Martine Cohen,Alexandra Henochsberg,Bruno Nahon</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Clark Richey
+</t>
+  </si>
+  <si>
+    <t>Alicia Allain,Morgan Cutturini,Robbie Fisher,Amye Gousset,Louise Krikorian,P.J. Leonard,Michael Mosca,Clark Richey</t>
+  </si>
+  <si>
+    <t>Declan McGrath</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Michael Chiang
+</t>
+  </si>
+  <si>
+    <t>Jianmin Lv,Jianhong Qi,Tang Chen Qi</t>
+  </si>
+  <si>
+    <t>Patricio Guzmán</t>
+  </si>
+  <si>
+    <t>Rita Baghdadi</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Marius Vaysberg
+</t>
+  </si>
+  <si>
+    <t>Alexander Atanesyan,Marina Bespalov,Sergei Bespalov,Mark Donadio,Natasha Doubrovskaya,Elaine Dysinger,Sergey Livnev,Vincent Garcia Newman,Marius Vaysberg</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ben Parker
+</t>
+  </si>
+  <si>
+    <t>Ali Cook,Bizzy Day,Ignacio de Medina,Ivo Felt,Tom Harberd,Paul Higgins,Phil Hunt,Maria Logan,Compton Ross,Hugh Spearing,Matthew James Wilkinson</t>
+  </si>
+  <si>
+    <t>Mark Cousins</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Jean Luc Herbulot
+</t>
+  </si>
+  <si>
+    <t>Jon Vangdal Aamaas,Rebhi Barqawi,Pamela Diop,Nick Ford,Jean Luc Herbulot,Douglas Jackson,Hus Miller,Guillaume Natas,Alexis Perrin,Mike Shema,Florent Steiner</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Valerie Buhagiar
+</t>
+  </si>
+  <si>
+    <t>Coral Aiken,Daniel Bekerman,Dorothy Coetzee,Elisabeth Costa de Beauregard,Pierre Ellul,José Luis Escolar,Mark Gingras,Anika Psaila Savona,Simon Sansone</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Francis Ford Coppola
+</t>
+  </si>
+  <si>
+    <t>Teri Fettis-D'Ovidio,Fred Fuchs,George Lucas,Fred Roos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Andrew Arguello
+</t>
+  </si>
+  <si>
+    <t>Andrew Arguello,Tom Ballard,Jennifer Bunn,Stephen Bunn,MJ Palo,Paul Anthony Skinner</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Giuseppe Monticciolo
+</t>
+  </si>
+  <si>
+    <t>Will Churchill,Ben Crocker,Jake Henderson,Giuseppe Monticciolo,Laura Ashley Polisena</t>
+  </si>
+  <si>
+    <t xml:space="preserve">USA
+</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="6" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
+  </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -75,8 +959,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="6" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -357,7 +1245,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A5"/>
+  <dimension ref="A1:F62"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
@@ -365,29 +1253,1220 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="E1" t="s">
         <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="B2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="1">
+        <v>62497899</v>
+      </c>
+      <c r="D2" s="1">
+        <v>109297899</v>
+      </c>
+      <c r="E2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="B3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="1">
+        <v>57046217</v>
+      </c>
+      <c r="D3" s="1">
+        <v>67046217</v>
+      </c>
+      <c r="E3" t="s">
+        <v>130</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="B4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="1">
+        <v>40958000</v>
+      </c>
+      <c r="D4" s="1">
+        <v>71858000</v>
+      </c>
+      <c r="E4" t="s">
+        <v>132</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="B5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="1">
+        <v>37956777</v>
+      </c>
+      <c r="D5" s="1">
+        <v>39638585</v>
+      </c>
+      <c r="E5" t="s">
+        <v>134</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="90" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="B6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" s="1">
+        <v>24714024</v>
+      </c>
+      <c r="D6" s="1">
+        <v>74661611</v>
+      </c>
+      <c r="E6" t="s">
+        <v>136</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="B7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" s="1">
+        <v>9321593</v>
+      </c>
+      <c r="D7" s="1">
+        <v>13850993</v>
+      </c>
+      <c r="E7" t="s">
+        <v>138</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="B8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" s="1">
+        <v>9111532</v>
+      </c>
+      <c r="D8" s="1">
+        <v>9111532</v>
+      </c>
+      <c r="E8" t="s">
+        <v>140</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="B9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C9" s="1">
+        <v>9109420</v>
+      </c>
+      <c r="D9" s="1">
+        <v>18941169</v>
+      </c>
+      <c r="E9" t="s">
+        <v>142</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" s="1">
+        <v>7839108</v>
+      </c>
+      <c r="D10" s="1">
+        <v>49958766</v>
+      </c>
+      <c r="E10" t="s">
+        <v>144</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" s="1">
+        <v>10205735</v>
+      </c>
+      <c r="D11" s="1">
+        <v>10205735</v>
+      </c>
+      <c r="E11" t="s">
+        <v>146</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="90" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="B12" t="s">
+        <v>27</v>
+      </c>
+      <c r="C12" s="1">
+        <v>5100765</v>
+      </c>
+      <c r="D12" s="1">
+        <v>5628010</v>
+      </c>
+      <c r="E12" t="s">
+        <v>148</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="B13" t="s">
+        <v>29</v>
+      </c>
+      <c r="C13" s="1">
+        <v>5021114</v>
+      </c>
+      <c r="D13" s="1">
+        <v>5021114</v>
+      </c>
+      <c r="E13" t="s">
+        <v>150</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="B14" t="s">
+        <v>31</v>
+      </c>
+      <c r="C14" s="1">
+        <v>4282000</v>
+      </c>
+      <c r="D14" s="1">
+        <v>20843701</v>
+      </c>
+      <c r="E14" t="s">
+        <v>152</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>153</v>
+      </c>
+      <c r="B15" t="s">
+        <v>33</v>
+      </c>
+      <c r="C15" s="1">
+        <v>3928715</v>
+      </c>
+      <c r="D15" s="1">
+        <v>10034509</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="90" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="B16" t="s">
+        <v>35</v>
+      </c>
+      <c r="C16" s="1">
+        <v>3104992</v>
+      </c>
+      <c r="D16" s="1">
+        <v>3104992</v>
+      </c>
+      <c r="E16" t="s">
+        <v>155</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="B17" t="s">
+        <v>37</v>
+      </c>
+      <c r="C17" s="1">
+        <v>2561270</v>
+      </c>
+      <c r="D17" s="1">
+        <v>2561270</v>
+      </c>
+      <c r="E17" t="s">
+        <v>157</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="B18" t="s">
+        <v>39</v>
+      </c>
+      <c r="C18" s="1">
+        <v>2275523</v>
+      </c>
+      <c r="D18" s="1">
+        <v>2275523</v>
+      </c>
+      <c r="E18" t="s">
+        <v>159</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="B19" t="s">
+        <v>41</v>
+      </c>
+      <c r="C19" s="1">
+        <v>2033057</v>
+      </c>
+      <c r="D19" s="1">
+        <v>4101576</v>
+      </c>
+      <c r="E19" t="s">
+        <v>161</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A20" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="B20" t="s">
+        <v>43</v>
+      </c>
+      <c r="C20" s="1">
+        <v>1838532</v>
+      </c>
+      <c r="D20" s="1">
+        <v>1846090</v>
+      </c>
+      <c r="E20" t="s">
+        <v>163</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A21" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="B21" t="s">
+        <v>45</v>
+      </c>
+      <c r="C21" s="1">
+        <v>1589362</v>
+      </c>
+      <c r="D21" s="1">
+        <v>7423384</v>
+      </c>
+      <c r="E21" t="s">
+        <v>165</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A22" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="B22" t="s">
+        <v>47</v>
+      </c>
+      <c r="C22" s="1">
+        <v>1419996</v>
+      </c>
+      <c r="D22" s="1">
+        <v>1419996</v>
+      </c>
+      <c r="E22" t="s">
+        <v>167</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A23" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="B23" t="s">
+        <v>49</v>
+      </c>
+      <c r="C23" s="1">
+        <v>1374325</v>
+      </c>
+      <c r="D23" s="1">
+        <v>3456642</v>
+      </c>
+      <c r="E23" t="s">
+        <v>169</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="105" x14ac:dyDescent="0.25">
+      <c r="A24" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="B24" t="s">
+        <v>51</v>
+      </c>
+      <c r="C24" s="1">
+        <v>1212525</v>
+      </c>
+      <c r="D24" s="1">
+        <v>1321680</v>
+      </c>
+      <c r="E24" t="s">
+        <v>171</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A25" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="B25" t="s">
+        <v>53</v>
+      </c>
+      <c r="C25" s="1">
+        <v>1072750</v>
+      </c>
+      <c r="D25" s="1">
+        <v>18920428</v>
+      </c>
+      <c r="E25" t="s">
+        <v>173</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="A26" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="B26" t="s">
+        <v>55</v>
+      </c>
+      <c r="C26" s="1">
+        <v>794943</v>
+      </c>
+      <c r="D26" s="1">
+        <v>905548</v>
+      </c>
+      <c r="E26" t="s">
+        <v>175</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="90" x14ac:dyDescent="0.25">
+      <c r="A27" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="B27" t="s">
+        <v>57</v>
+      </c>
+      <c r="C27" s="1">
+        <v>643828</v>
+      </c>
+      <c r="D27" s="1">
+        <v>643828</v>
+      </c>
+      <c r="E27" t="s">
+        <v>177</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" ht="90" x14ac:dyDescent="0.25">
+      <c r="A28" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="B28" t="s">
+        <v>59</v>
+      </c>
+      <c r="C28" s="1">
+        <v>549916</v>
+      </c>
+      <c r="D28" s="1">
+        <v>1989965</v>
+      </c>
+      <c r="E28" t="s">
+        <v>179</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A29" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="B29" t="s">
+        <v>61</v>
+      </c>
+      <c r="C29" s="1">
+        <v>538842</v>
+      </c>
+      <c r="D29" s="1">
+        <v>538842</v>
+      </c>
+      <c r="E29" t="s">
+        <v>181</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A30" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="B30" t="s">
+        <v>63</v>
+      </c>
+      <c r="C30" s="1">
+        <v>492903</v>
+      </c>
+      <c r="D30" s="1">
+        <v>492903</v>
+      </c>
+      <c r="E30" t="s">
+        <v>183</v>
+      </c>
+      <c r="F30" s="2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="A31" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="B31" t="s">
+        <v>65</v>
+      </c>
+      <c r="C31" s="1">
+        <v>445343</v>
+      </c>
+      <c r="D31" s="1">
+        <v>4206484</v>
+      </c>
+      <c r="E31" t="s">
+        <v>185</v>
+      </c>
+      <c r="F31" s="2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="A32" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="B32" t="s">
+        <v>67</v>
+      </c>
+      <c r="C32" s="1">
+        <v>396000</v>
+      </c>
+      <c r="D32" s="1">
+        <v>396000</v>
+      </c>
+      <c r="E32" t="s">
+        <v>187</v>
+      </c>
+      <c r="F32" s="2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="A33" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="B33" t="s">
+        <v>69</v>
+      </c>
+      <c r="C33" s="1">
+        <v>236153</v>
+      </c>
+      <c r="D33" s="1">
+        <v>236153</v>
+      </c>
+      <c r="E33" t="s">
+        <v>189</v>
+      </c>
+      <c r="F33" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" ht="90" x14ac:dyDescent="0.25">
+      <c r="A34" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="B34" t="s">
+        <v>70</v>
+      </c>
+      <c r="C34" s="1">
+        <v>205135</v>
+      </c>
+      <c r="D34" s="1">
+        <v>205135</v>
+      </c>
+      <c r="E34" t="s">
+        <v>191</v>
+      </c>
+      <c r="F34" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A35" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="B35" t="s">
+        <v>72</v>
+      </c>
+      <c r="C35" s="1">
+        <v>151292</v>
+      </c>
+      <c r="D35" s="1">
+        <v>151292</v>
+      </c>
+      <c r="E35" t="s">
+        <v>193</v>
+      </c>
+      <c r="F35" s="2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A36" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="B36" t="s">
+        <v>74</v>
+      </c>
+      <c r="C36" s="1">
+        <v>86610</v>
+      </c>
+      <c r="D36" s="1">
+        <v>86610</v>
+      </c>
+      <c r="E36" t="s">
+        <v>195</v>
+      </c>
+      <c r="F36" s="2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A37" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="B37" t="s">
+        <v>76</v>
+      </c>
+      <c r="C37" s="1">
+        <v>86203</v>
+      </c>
+      <c r="D37" s="1">
+        <v>86203</v>
+      </c>
+      <c r="E37" t="s">
+        <v>197</v>
+      </c>
+      <c r="F37" s="2" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="A38" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="B38" t="s">
+        <v>78</v>
+      </c>
+      <c r="C38" s="1">
+        <v>66581</v>
+      </c>
+      <c r="D38" s="1">
+        <v>66581</v>
+      </c>
+      <c r="E38" t="s">
+        <v>199</v>
+      </c>
+      <c r="F38" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="A39" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="B39" t="s">
+        <v>80</v>
+      </c>
+      <c r="C39" s="1">
+        <v>61942</v>
+      </c>
+      <c r="D39" s="1">
+        <v>903474</v>
+      </c>
+      <c r="E39" t="s">
+        <v>201</v>
+      </c>
+      <c r="F39" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A40" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="B40" t="s">
+        <v>82</v>
+      </c>
+      <c r="C40" s="1">
+        <v>47033</v>
+      </c>
+      <c r="D40" s="1">
+        <v>62987</v>
+      </c>
+      <c r="E40" t="s">
+        <v>203</v>
+      </c>
+      <c r="F40" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" ht="90" x14ac:dyDescent="0.25">
+      <c r="A41" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="B41" t="s">
+        <v>84</v>
+      </c>
+      <c r="C41" s="1">
+        <v>45916</v>
+      </c>
+      <c r="D41" s="1">
+        <v>1467108</v>
+      </c>
+      <c r="E41" t="s">
+        <v>205</v>
+      </c>
+      <c r="F41" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A42" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="B42" t="s">
+        <v>86</v>
+      </c>
+      <c r="C42" s="1">
+        <v>41222</v>
+      </c>
+      <c r="D42" s="1">
+        <v>41886</v>
+      </c>
+      <c r="E42" t="s">
+        <v>207</v>
+      </c>
+      <c r="F42" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" ht="90" x14ac:dyDescent="0.25">
+      <c r="A43" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="B43" t="s">
+        <v>88</v>
+      </c>
+      <c r="C43" s="1">
+        <v>34413</v>
+      </c>
+      <c r="D43" s="1">
+        <v>34413</v>
+      </c>
+      <c r="E43" t="s">
+        <v>209</v>
+      </c>
+      <c r="F43" s="2" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A44" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="B44" t="s">
+        <v>90</v>
+      </c>
+      <c r="C44" s="1">
+        <v>31493</v>
+      </c>
+      <c r="D44" s="1">
+        <v>31814</v>
+      </c>
+      <c r="E44" t="s">
+        <v>211</v>
+      </c>
+      <c r="F44" s="2" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>212</v>
+      </c>
+      <c r="B45" t="s">
+        <v>92</v>
+      </c>
+      <c r="C45" s="1">
+        <v>31362</v>
+      </c>
+      <c r="D45" s="1">
+        <v>31362</v>
+      </c>
+      <c r="F45" s="2" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>213</v>
+      </c>
+      <c r="B46" t="s">
+        <v>94</v>
+      </c>
+      <c r="C46" s="1">
+        <v>30310</v>
+      </c>
+      <c r="D46" s="1">
+        <v>30310</v>
+      </c>
+      <c r="F46" s="2" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A47" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="B47" t="s">
+        <v>96</v>
+      </c>
+      <c r="C47" s="1">
+        <v>29763</v>
+      </c>
+      <c r="D47" s="1">
+        <v>29763</v>
+      </c>
+      <c r="E47" t="s">
+        <v>215</v>
+      </c>
+      <c r="F47" s="2" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" ht="90" x14ac:dyDescent="0.25">
+      <c r="A48" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="B48" t="s">
+        <v>98</v>
+      </c>
+      <c r="C48" s="1">
+        <v>27398</v>
+      </c>
+      <c r="D48" s="1">
+        <v>134744</v>
+      </c>
+      <c r="E48" t="s">
+        <v>217</v>
+      </c>
+      <c r="F48" s="2" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="A49" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="B49" t="s">
+        <v>100</v>
+      </c>
+      <c r="C49" s="1">
+        <v>25400</v>
+      </c>
+      <c r="D49" s="1">
+        <v>25400</v>
+      </c>
+      <c r="E49" t="s">
+        <v>219</v>
+      </c>
+      <c r="F49" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>220</v>
+      </c>
+      <c r="B50" t="s">
+        <v>102</v>
+      </c>
+      <c r="C50" s="1">
+        <v>24376</v>
+      </c>
+      <c r="D50" s="1">
+        <v>41016</v>
+      </c>
+      <c r="F50" s="2" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" ht="165" x14ac:dyDescent="0.25">
+      <c r="A51" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="B51" t="s">
+        <v>104</v>
+      </c>
+      <c r="C51" s="1">
+        <v>23617</v>
+      </c>
+      <c r="D51" s="1">
+        <v>23617</v>
+      </c>
+      <c r="E51" t="s">
+        <v>222</v>
+      </c>
+      <c r="F51" s="2" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>223</v>
+      </c>
+      <c r="B52" t="s">
+        <v>106</v>
+      </c>
+      <c r="C52" s="1">
+        <v>10877</v>
+      </c>
+      <c r="D52" s="1">
+        <v>10877</v>
+      </c>
+      <c r="F52" s="2" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>224</v>
+      </c>
+      <c r="B53" t="s">
+        <v>108</v>
+      </c>
+      <c r="C53" s="1">
+        <v>8950</v>
+      </c>
+      <c r="D53" s="1">
+        <v>8950</v>
+      </c>
+      <c r="F53" s="2" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="A54" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="B54" t="s">
+        <v>110</v>
+      </c>
+      <c r="C54" s="1">
+        <v>8688</v>
+      </c>
+      <c r="D54" s="1">
+        <v>524102</v>
+      </c>
+      <c r="E54" t="s">
+        <v>226</v>
+      </c>
+      <c r="F54" s="2" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A55" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="B55" t="s">
+        <v>112</v>
+      </c>
+      <c r="C55" s="1">
+        <v>8566</v>
+      </c>
+      <c r="D55" s="1">
+        <v>8566</v>
+      </c>
+      <c r="E55" t="s">
+        <v>228</v>
+      </c>
+      <c r="F55" s="2" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>229</v>
+      </c>
+      <c r="B56" t="s">
+        <v>114</v>
+      </c>
+      <c r="C56" s="1">
+        <v>5778</v>
+      </c>
+      <c r="D56" s="1">
+        <v>19146</v>
+      </c>
+      <c r="F56" s="2" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A57" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="B57" t="s">
+        <v>116</v>
+      </c>
+      <c r="C57" s="1">
+        <v>5078</v>
+      </c>
+      <c r="D57" s="1">
+        <v>5078</v>
+      </c>
+      <c r="E57" t="s">
+        <v>231</v>
+      </c>
+      <c r="F57" s="2" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A58" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="B58" t="s">
+        <v>118</v>
+      </c>
+      <c r="C58" s="1">
+        <v>3927</v>
+      </c>
+      <c r="D58" s="1">
+        <v>3927</v>
+      </c>
+      <c r="E58" t="s">
+        <v>233</v>
+      </c>
+      <c r="F58" s="2" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A59" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="B59" t="s">
+        <v>120</v>
+      </c>
+      <c r="C59" s="1">
+        <v>3475</v>
+      </c>
+      <c r="D59" s="1">
+        <v>3475</v>
+      </c>
+      <c r="E59" t="s">
+        <v>235</v>
+      </c>
+      <c r="F59" s="2" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" ht="90" x14ac:dyDescent="0.25">
+      <c r="A60" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="B60" t="s">
+        <v>122</v>
+      </c>
+      <c r="C60" s="1">
+        <v>3364</v>
+      </c>
+      <c r="D60" s="1">
+        <v>3364</v>
+      </c>
+      <c r="E60" t="s">
+        <v>237</v>
+      </c>
+      <c r="F60" s="2" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" ht="90" x14ac:dyDescent="0.25">
+      <c r="A61" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="B61" t="s">
+        <v>124</v>
+      </c>
+      <c r="C61" s="1">
+        <v>3059</v>
+      </c>
+      <c r="D61" s="1">
+        <v>3059</v>
+      </c>
+      <c r="E61" t="s">
+        <v>239</v>
+      </c>
+      <c r="F61" s="2" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A62" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="B62" t="s">
+        <v>126</v>
+      </c>
+      <c r="C62" s="1">
+        <v>1996</v>
+      </c>
+      <c r="D62" s="1">
+        <v>1996</v>
+      </c>
+      <c r="F62" s="2" t="s">
+        <v>127</v>
       </c>
     </row>
   </sheetData>

--- a/MovieDatabaseProcess/output-spreadsheets/movie-information.xlsx
+++ b/MovieDatabaseProcess/output-spreadsheets/movie-information.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25629"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\maggi\Documents\GitHub\rpa-solution\MovieDatabaseProcess\output-spreadsheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0F82DB1-40C0-44EF-BE6E-446CDD817D00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D778A869-FE49-456A-A3C1-5212FCA96BA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13260" yWindow="2895" windowWidth="11400" windowHeight="11370" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10365" yWindow="1410" windowWidth="17100" windowHeight="11370" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,27 +25,929 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="246">
   <si>
     <t>Director</t>
   </si>
   <si>
-    <t>taika waititi</t>
-  </si>
-  <si>
-    <t>christopher nolan</t>
-  </si>
-  <si>
-    <t>james cameron</t>
-  </si>
-  <si>
-    <t>steven speilberg</t>
+    <t>Release</t>
+  </si>
+  <si>
+    <t>Domestic</t>
+  </si>
+  <si>
+    <t>Worldwide</t>
+  </si>
+  <si>
+    <t>Producer</t>
+  </si>
+  <si>
+    <t>Production company</t>
+  </si>
+  <si>
+    <t>Marty Bowen,Adam Fishbach,Wyck Godfrey,Isaac Klausner,Robert Salerno</t>
+  </si>
+  <si>
+    <t>Smile</t>
+  </si>
+  <si>
+    <t xml:space="preserve">_x000D_
+Paramount Players_x000D_
+</t>
+  </si>
+  <si>
+    <t>Don't Worry Darling</t>
+  </si>
+  <si>
+    <t xml:space="preserve">_x000D_
+New Line Cinema_x000D_
+</t>
+  </si>
+  <si>
+    <t>Barbarian</t>
+  </si>
+  <si>
+    <t xml:space="preserve">_x000D_
+BoulderLight Pictures_x000D_
+</t>
+  </si>
+  <si>
+    <t>Avatar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">_x000D_
+Twentieth Century Fox_x000D_
+</t>
+  </si>
+  <si>
+    <t>Spider-Man: No Way Home</t>
+  </si>
+  <si>
+    <t xml:space="preserve">_x000D_
+Columbia Pictures_x000D_
+</t>
+  </si>
+  <si>
+    <t>Pearl</t>
+  </si>
+  <si>
+    <t xml:space="preserve">_x000D_
+A24_x000D_
+</t>
+  </si>
+  <si>
+    <t>See How They Run</t>
+  </si>
+  <si>
+    <t xml:space="preserve">_x000D_
+Searchlight Pictures_x000D_
+</t>
+  </si>
+  <si>
+    <t>Brahmastra Part One: Shiva</t>
+  </si>
+  <si>
+    <t xml:space="preserve">_x000D_
+Dharma Productions_x000D_
+</t>
+  </si>
+  <si>
+    <t>Bros</t>
+  </si>
+  <si>
+    <t xml:space="preserve">_x000D_
+Universal Pictures_x000D_
+</t>
+  </si>
+  <si>
+    <t>Jaws</t>
+  </si>
+  <si>
+    <t xml:space="preserve">_x000D_
+Zanuck/Brown Productions_x000D_
+</t>
+  </si>
+  <si>
+    <t>Lifemark</t>
+  </si>
+  <si>
+    <t xml:space="preserve">_x000D_
+Kendrick Brothers_x000D_
+</t>
+  </si>
+  <si>
+    <t>Ponniyin Selvan: Part I</t>
+  </si>
+  <si>
+    <t xml:space="preserve">_x000D_
+Lyca Productions_x000D_
+</t>
+  </si>
+  <si>
+    <t>Moonage Daydream</t>
+  </si>
+  <si>
+    <t xml:space="preserve">_x000D_
+BMG_x000D_
+</t>
+  </si>
+  <si>
+    <t>Clerks III</t>
+  </si>
+  <si>
+    <t xml:space="preserve">_x000D_
+View Askew Productions_x000D_
+</t>
+  </si>
+  <si>
+    <t>Honk for Jesus. Save Your Soul.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">_x000D_
+Pinky Promise_x000D_
+</t>
+  </si>
+  <si>
+    <t>Gigi &amp; Nate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">_x000D_
+Free Turn_x000D_
+</t>
+  </si>
+  <si>
+    <t>Jeepers Creepers: Reborn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">_x000D_
+Black Hangar Studios_x000D_
+</t>
+  </si>
+  <si>
+    <t>The Good House</t>
+  </si>
+  <si>
+    <t xml:space="preserve">_x000D_
+Amblin Partners_x000D_
+</t>
+  </si>
+  <si>
+    <t>Vikram Vedha</t>
+  </si>
+  <si>
+    <t xml:space="preserve">_x000D_
+Y Not Studios_x000D_
+</t>
+  </si>
+  <si>
+    <t>Running the Bases</t>
+  </si>
+  <si>
+    <t xml:space="preserve">_x000D_
+UP2U Films_x000D_
+</t>
+  </si>
+  <si>
+    <t>Medieval</t>
+  </si>
+  <si>
+    <t xml:space="preserve">_x000D_
+J.B.J. Film_x000D_
+</t>
+  </si>
+  <si>
+    <t>Howl's Moving Castle</t>
+  </si>
+  <si>
+    <t xml:space="preserve">_x000D_
+Buena Vista Home Entertainment_x000D_
+</t>
+  </si>
+  <si>
+    <t>After Ever Happy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">_x000D_
+CalMaple_x000D_
+</t>
+  </si>
+  <si>
+    <t>Star Trek II: The Wrath of Khan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">_x000D_
+Paramount Pictures_x000D_
+</t>
+  </si>
+  <si>
+    <t>Saint Michael Meet the Angel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">_x000D_
+Sonovision_x000D_
+</t>
+  </si>
+  <si>
+    <t>Cuando Sea Joven</t>
+  </si>
+  <si>
+    <t xml:space="preserve">_x000D_
+Globalgate Entertainment_x000D_
+</t>
+  </si>
+  <si>
+    <t>Confess, Fletch</t>
+  </si>
+  <si>
+    <t xml:space="preserve">_x000D_
+Miramax_x000D_
+</t>
+  </si>
+  <si>
+    <t>God's Country</t>
+  </si>
+  <si>
+    <t xml:space="preserve">_x000D_
+Cold Iron Pictures_x000D_
+</t>
+  </si>
+  <si>
+    <t>Railway Children</t>
+  </si>
+  <si>
+    <t xml:space="preserve">_x000D_
+Aquarium Studios_x000D_
+</t>
+  </si>
+  <si>
+    <t>Superspreader</t>
+  </si>
+  <si>
+    <t xml:space="preserve">_x000D_
+Through The Woods_x000D_
+</t>
+  </si>
+  <si>
+    <t>On the Come Up</t>
+  </si>
+  <si>
+    <t>The Silent Twins</t>
+  </si>
+  <si>
+    <t xml:space="preserve">_x000D_
+Kindred Spirit_x000D_
+</t>
+  </si>
+  <si>
+    <t>Hockeyland</t>
+  </si>
+  <si>
+    <t xml:space="preserve">_x000D_
+Northland Films_x000D_
+</t>
+  </si>
+  <si>
+    <t>Goodbye, Don Glees!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">_x000D_
+Madhouse_x000D_
+</t>
+  </si>
+  <si>
+    <t>Unfavorable Odds</t>
+  </si>
+  <si>
+    <t xml:space="preserve">_x000D_
+Owlam Studios_x000D_
+</t>
+  </si>
+  <si>
+    <t>Boblo Boats: A Detroit Ferry Tale</t>
+  </si>
+  <si>
+    <t xml:space="preserve">_x000D_
+Baby Volcano Films_x000D_
+</t>
+  </si>
+  <si>
+    <t>Hold Me Tight</t>
+  </si>
+  <si>
+    <t xml:space="preserve">_x000D_
+Les Films du Poisson_x000D_
+</t>
+  </si>
+  <si>
+    <t>Give Me Five</t>
+  </si>
+  <si>
+    <t xml:space="preserve">_x000D_
+Mokexing Film_x000D_
+</t>
+  </si>
+  <si>
+    <t>Vesper</t>
+  </si>
+  <si>
+    <t xml:space="preserve">_x000D_
+Rumble Fish Productions_x000D_
+</t>
+  </si>
+  <si>
+    <t>Loving Highsmith</t>
+  </si>
+  <si>
+    <t xml:space="preserve">_x000D_
+Ensemble Films_x000D_
+</t>
+  </si>
+  <si>
+    <t>Lumpia with a Vengeance</t>
+  </si>
+  <si>
+    <t xml:space="preserve">_x000D_
+Kid Heroes Productions_x000D_
+</t>
+  </si>
+  <si>
+    <t>Carnal Knowledge</t>
+  </si>
+  <si>
+    <t xml:space="preserve">_x000D_
+Embassy Pictures_x000D_
+</t>
+  </si>
+  <si>
+    <t>Riotsville, U.S.A.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">_x000D_
+Arch + Bow Films_x000D_
+</t>
+  </si>
+  <si>
+    <t>Buried: The 1982 Alpine Meadows Avalanche</t>
+  </si>
+  <si>
+    <t xml:space="preserve">_x000D_
+ACE Content_x000D_
+</t>
+  </si>
+  <si>
+    <t>The African Desperate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">_x000D_
+Ways &amp; Means_x000D_
+</t>
+  </si>
+  <si>
+    <t>Casablanca Beats</t>
+  </si>
+  <si>
+    <t xml:space="preserve">_x000D_
+Les Films du Nouveau Monde_x000D_
+</t>
+  </si>
+  <si>
+    <t>Mysterious Circumstance: The Death of Meriwether Lewis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">_x000D_
+Six Shooter Studios_x000D_
+</t>
+  </si>
+  <si>
+    <t>Young Plato</t>
+  </si>
+  <si>
+    <t xml:space="preserve">_x000D_
+Clin d'oeil Films_x000D_
+</t>
+  </si>
+  <si>
+    <t>Wolf Pack</t>
+  </si>
+  <si>
+    <t xml:space="preserve">_x000D_
+Beijing Spring and Autumn Cinemas Television Culture Communication_x000D_
+</t>
+  </si>
+  <si>
+    <t>My Imaginary Country</t>
+  </si>
+  <si>
+    <t xml:space="preserve">_x000D_
+Arte France Cinéma_x000D_
+</t>
+  </si>
+  <si>
+    <t>Sirens</t>
+  </si>
+  <si>
+    <t>About Fate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">_x000D_
+Aldamisa Entertainment_x000D_
+</t>
+  </si>
+  <si>
+    <t>Burial</t>
+  </si>
+  <si>
+    <t xml:space="preserve">_x000D_
+Stigma Films_x000D_
+</t>
+  </si>
+  <si>
+    <t>The Story of Film: A New Generation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">_x000D_
+Hopscotch Films_x000D_
+</t>
+  </si>
+  <si>
+    <t>Saloum</t>
+  </si>
+  <si>
+    <t xml:space="preserve">_x000D_
+Lacmé_x000D_
+</t>
+  </si>
+  <si>
+    <t>Carmen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">_x000D_
+Falkun Films_x000D_
+</t>
+  </si>
+  <si>
+    <t>Tucker: The Man and His Dream</t>
+  </si>
+  <si>
+    <t xml:space="preserve">_x000D_
+Lucasfilm_x000D_
+</t>
+  </si>
+  <si>
+    <t>Carp-e Diem</t>
+  </si>
+  <si>
+    <t xml:space="preserve">_x000D_
+Mad Wife Productions I_x000D_
+</t>
+  </si>
+  <si>
+    <t>The Modern Way</t>
+  </si>
+  <si>
+    <t xml:space="preserve">_x000D_
+Anxious Eddy Pictures_x000D_
+</t>
+  </si>
+  <si>
+    <t>B'Twixt Now and Sunrise</t>
+  </si>
+  <si>
+    <t xml:space="preserve">_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Parker Finn
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Olivia Wilde
+</t>
+  </si>
+  <si>
+    <t>Richard Brener,Catherine Hardwicke,Celia Khong,Roy Lee,Alex G. Scott,Katie Silberman,Carey Van Dyke,Shane Van Dyke,Olivia Wilde,Miri Yoon</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Zach Cregger
+</t>
+  </si>
+  <si>
+    <t>Chris Abernathy,Danny Chan,Elitsa Dimitrova,Ivan Doykov,Alex Lebovici,Roy Lee,Natalie Lehmann,J.D. Lifshitz,Raphael Margules,Arnon Milchan,Yariv Milchan,Tracy Rosenblum,Michael Schaefer,Bill Skarsgård,Alana Wright</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> James Cameron
+</t>
+  </si>
+  <si>
+    <t>Brooke Breton,James Cameron,Laeta Kalogridis,Jon Landau,Josh McLaglen,Janace Tashjian,Peter M. Tobyansen,Colin Wilson</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Jon Watts
+</t>
+  </si>
+  <si>
+    <t>Victoria Alonso,Avi Arad,Mitchell Bell,Chris Buongiorno,Louis D'Esposito,Kevin Feige,Emily Fong,Rachel O'Connor,Amy Pascal,JoAnn Perritano,Matt Tolmach,David H. Venghaus Jr.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ti West
+</t>
+  </si>
+  <si>
+    <t>Jared Connon,Kid Cudi,Dennis Cummings,Mia Goth,Jacob Jaffke,Harrison Kreiss,Ashley Levinson,Sam Levinson,Karina Manashil,Peter Phok,Kevin Turen,Ti West</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Tom George
+</t>
+  </si>
+  <si>
+    <t>Gina Carter,Thomas Darby-Evans,Marie Dong,Damian Jones</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ayan Mukerji
+</t>
+  </si>
+  <si>
+    <t>Marijke Desouza,Valentin Dimitrov,Karan Johar,Ranbir Kapoor,Namit Malhotra,Ayan Mukerji,Alexander Peytchev</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Nicholas Stoller
+</t>
+  </si>
+  <si>
+    <t>Judd Apatow,Guy Branum,Josh Church,Billy Eichner,Karl Frankenfield,Ciara Pavia,Nicholas Stoller</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Steven Spielberg
+</t>
+  </si>
+  <si>
+    <t>David Brown,Richard D. Zanuck</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Kevin Peeples
+</t>
+  </si>
+  <si>
+    <t>Aaron Burns,Larry Frenzel,Alex Kendrick,Shannon Kendrick,Stephen Kendrick,Jim McBride,Brian Mitchell,Chad Price,Bill Reeves,Justin Tolley</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Mani Ratnam
+</t>
+  </si>
+  <si>
+    <t>Zaid Ali,Zohaib Ali,Siva Ananth,John Milton Branton,Rhea Kongara,Bejoy Nambiar,Mani Ratnam,Barani Sakthivel,Aasheesha Srinivasan,A. Subaskaran,Suhasini</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Kevin Smith
+</t>
+  </si>
+  <si>
+    <t>Jeff Anderson,Chelsey Cole,Liz Destro,David Gendron,Matthew Helderman,Amy Jarvela,Ali Jazayeri,Daniel McGilvray,Jordan Monsanto,Ernest O'Donnell,Brian O'Halloran,Jennifer Schwalbach Smith,Kevin Smith,Luke Taylor</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Adamma Ebo
+</t>
+  </si>
+  <si>
+    <t>Sterling K. Brown,Jessamine Burgum,Matthew R. Cooper,Amandla Crichlow,Kara Durrett,Adanne Ebo,Dana Gills,Will Greenfield,Carolina Groppa,Regina Hall,Daniel Kaluuya,Lucy Keith,Gerry Pass,Jordan Peele,Rowan Riley,Win Rosenfeld</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Nick Hamm
+</t>
+  </si>
+  <si>
+    <t>Scott E. Anderson,René Besson,Lauren Cox,Nick Drew,Jon Hamm,Nick Hamm,Elizabeth Littlefield,Valerie Pappas Llauro,Piers Tempest</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Timo Vuorensola
+</t>
+  </si>
+  <si>
+    <t>Terry Bird,Lee Broda,Alastair Burlingham,Suraj Gohill,Carey Kurtin,Matthew Kurtin,Seth Needle,Michael Ohoven,Elizabeth Primm,Gary Raskin,Jake Seal,Jamie R. Thompson</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Maya Forbes
+</t>
+  </si>
+  <si>
+    <t>Holly Bario,Erika Hampson,Robert Kessel,Christos V. Konstantakopoulos,Jane Rosenthal,Aaron Ryder,Steve Samuels,Jeff Skoll,Berry Welsh</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Gayatri
+</t>
+  </si>
+  <si>
+    <t>Vivek b Agrawal,Alex Anthony Fernandes,Ghanteshwar T. Guru,Bhushan Kumar,Keshav Purushot,Chakravarthy Ramachandra,S. Sashikanth,Anshul Talwar</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Marty Roberts
+</t>
+  </si>
+  <si>
+    <t>Robert C. Bigelow,Shelley Irene Dall,Clavey Mary,Kim Percival,Marty Roberts,Kelly Andrea Rubin,Johnnie Ray Scroggins,Gieava Stinchcomb,Jimmy Womble</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Petr Jákl
+</t>
+  </si>
+  <si>
+    <t>Martin J. Barab,Kevin Bernhardt,Pam Dixon,Cassian Elwes,Arianne Fraser,Petr Jakl Sr.,Daniel Jaros,Petr Jákl,Alena Jáklová,Viktor Kristof,Stuart Manashil,Delphine Perrier</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Hayao Miyazaki
+</t>
+  </si>
+  <si>
+    <t>Rick Dempsey,Tomohiko Ishii,John Lasseter,Ned Lott,Hayao Miyazaki,Toshio Suzuki</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Castille Landon
+</t>
+  </si>
+  <si>
+    <t>Mark Canton,Nicolas Chartier,Jonathan Deckter,Morgan Emmery,Hero Fiennes Tiffin,Jennifer Gibgot,Eric Lehrman,Aron Levitz,Jean-Charles Levy,Peter Mechkoff,Andrew Panay,Brian Pitt,Bob Shapiro,Courtney Solomon</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Nicholas Meyer
+</t>
+  </si>
+  <si>
+    <t>Harve Bennett,William F. Phillips,Robert Sallin</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Wincenty Podobinski
+</t>
+  </si>
+  <si>
+    <t>Oscar Delgado,Wincenty Podobinski</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Raúl Martínez
+</t>
+  </si>
+  <si>
+    <t>Eugenio Derbez,Ben Odell,Avelino Rodríguez,Zack Schiller,Dylan Sellers</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Greg Mottola
+</t>
+  </si>
+  <si>
+    <t>Bill Block,Andrew Golov,Jon Hamm,Mark Kamine,David List,Greg Mottola,Connie Tavel,Thomas Zadra</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Julian Higgins
+</t>
+  </si>
+  <si>
+    <t>Miranda Bailey,Jason Beck,Mark Bennett,Halee Bernard,Anthony Ciardelli,Dwjuan F. Fox,Julian Higgins,Amanda Marshall,Shaye Ogbonna,Colin Scott</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Morgan Matthews
+</t>
+  </si>
+  <si>
+    <t>Jamie Harvey,Steve Newton,Jemma Rodgers</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Josh Franer
+</t>
+  </si>
+  <si>
+    <t>Josh Franer</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Sanaa Lathan
+</t>
+  </si>
+  <si>
+    <t>Timothy M. Bourne,Marty Bowen,John Fischer,Wyck Godfrey,Isaac Klausner,Jay Marcus,Rapsody,Robert Teitel,Angie Thomas,Angie Thomas,George Tillman Jr.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Agnieszka Smoczynska
+</t>
+  </si>
+  <si>
+    <t>Katie Anderson,Sebastian Barker,Jake Carter,Saskia Gigi Duff,Oli Falcon,Anita Gou,Trevor Groth,Adam Gudell,Joshua Horsfield,Tamara Lawrance,Charlie Morrison,Ben Pugh,Ewa Puszczynska,Michael Reuter,Beata Rzezniczek,Andrea Seigel,Klaudia Smieja,Bogna Szewczyk,Alicia Van Couvering,Marjorie Wallace,Letitia Wright,Cobbie Yates</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Tommy Haines
+</t>
+  </si>
+  <si>
+    <t>J.T. Haines,Tommy Haines,Carson Kipfer,Andrew Sherburne</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Atsuko Ishizuka
+</t>
+  </si>
+  <si>
+    <t>Anjali Kunapaneni</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Michael A. Pinckney
+</t>
+  </si>
+  <si>
+    <t>Curshion Jones,Dejorian Moore,Larry Sheffield,Larry L. Sheffield,Corey Toney,Leonard Toth,Edna White,Tony D. White</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Aaron Schillinger
+</t>
+  </si>
+  <si>
+    <t>Steve Bannatyne,David Fabelo,Mike Madigan,Peter Monro,Jayil Pak,Matthew Peach,Isabel Sandoval,Aaron Schillinger,Jason Wehling</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Mathieu Amalric
+</t>
+  </si>
+  <si>
+    <t>Garance Cosimano,Yaël Fogiel,Laetitia Gonzalez,Olivier Père,Felix von Boehm</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Luan Zhang
+</t>
+  </si>
+  <si>
+    <t>Wei Wang</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Kristina Buozyte
+</t>
+  </si>
+  <si>
+    <t>Jon Vangdal Aamaas,Louis Balsan,Kristina Buozyte,Arturas Dvinelis,Nick Ford,Cécile Gaget,Rj Hendricks,Daiva Jovaisiene,Asta Liukaityte,Guillaume Natas,Alexis Perrin,Sébastien Raybaud,Benoit Roland,Thomas Schober,Mike Shema,Florent Steiner,Nabil Ben Yadir,Vitalijus Zukas</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Eva Vitija
+</t>
+  </si>
+  <si>
+    <t>Carl-Ludwig Rettinger,Lino Rettinger,Franziska Sonder,Maurizius Staerkle-Drux</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Patricio Ginelsa
+</t>
+  </si>
+  <si>
+    <t>Carlos Baon,Earl Baylon,A.J. Calomay,Liza Cavan,Lisa Chong,Rey Cuerdo,LeRoid David,Miki Gerelhuyag,Darriel Ginelsa,Melanie Ginelsa,Patricio Ginelsa,Lawrence Iriarte,Randal Kamradt,Jeff Lam,Rachel Liu,Richelle Mirador Mas,Brian Monsayac,Mark Muñoz,Rheena Muñoz,Emily Norovsambuu,Gerald Pilare,Lillian Prijoles,Justin Quizon,Amrit Singh,Varinder Singh</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Mike Nichols
+</t>
+  </si>
+  <si>
+    <t>Joseph E. Levine,Mike Nichols,Clive Reed</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Martine Syms
+</t>
+  </si>
+  <si>
+    <t>Vic Brooks,Rocket Caleshu,Sadie Coles,Bridget Donahue,Lana Kim,Jonathan Olson,Jett Steiger,Martine Syms</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Nabil Ayouch
+</t>
+  </si>
+  <si>
+    <t>Nabil Ayouch,Amine Benjelloun,Alain Cohen,Martine Cohen,Alexandra Henochsberg,Bruno Nahon</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Clark Richey
+</t>
+  </si>
+  <si>
+    <t>Alicia Allain,Morgan Cutturini,Robbie Fisher,Amye Gousset,Louise Krikorian,P.J. Leonard,Michael Mosca,Clark Richey</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Michael Chiang
+</t>
+  </si>
+  <si>
+    <t>Jianmin Lv,Jianhong Qi,Tang Chen Qi</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Marius Vaysberg
+</t>
+  </si>
+  <si>
+    <t>Alexander Atanesyan,Marina Bespalov,Sergei Bespalov,Mark Donadio,Natasha Doubrovskaya,Elaine Dysinger,Sergey Livnev,Vincent Garcia Newman,Marius Vaysberg</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ben Parker
+</t>
+  </si>
+  <si>
+    <t>Ali Cook,Bizzy Day,Ignacio de Medina,Ivo Felt,Tom Harberd,Paul Higgins,Phil Hunt,Maria Logan,Compton Ross,Hugh Spearing,Matthew James Wilkinson</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Jean Luc Herbulot
+</t>
+  </si>
+  <si>
+    <t>Jon Vangdal Aamaas,Rebhi Barqawi,Pamela Diop,Nick Ford,Jean Luc Herbulot,Douglas Jackson,Hus Miller,Guillaume Natas,Alexis Perrin,Mike Shema,Florent Steiner</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Valerie Buhagiar
+</t>
+  </si>
+  <si>
+    <t>Coral Aiken,Daniel Bekerman,Dorothy Coetzee,Elisabeth Costa de Beauregard,Pierre Ellul,José Luis Escolar,Mark Gingras,Anika Psaila Savona,Simon Sansone</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Francis Ford Coppola
+</t>
+  </si>
+  <si>
+    <t>Teri Fettis-D'Ovidio,Fred Fuchs,George Lucas,Fred Roos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Andrew Arguello
+</t>
+  </si>
+  <si>
+    <t>Andrew Arguello,Tom Ballard,Jennifer Bunn,Stephen Bunn,MJ Palo,Paul Anthony Skinner</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Giuseppe Monticciolo
+</t>
+  </si>
+  <si>
+    <t>Will Churchill,Ben Crocker,Jake Henderson,Giuseppe Monticciolo,Laura Ashley Polisena</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Brett Morgen
+</t>
+  </si>
+  <si>
+    <t>Jessica Berman Bogdan,Helen Butcher,Aisha Cohen,Tom Cyrana,Eileen D'Arcy,Kathy Rivkin Daum,Debra Eisenstadt,Tracy Flannigan,Bill Gerber,Justus Haerder,Ryan Kroft,Hartwig Masuch,Brett Morgen,Andrew Murray,Lauren Ospala,Heather Parry,Michael Rapino,Bill Zysblat</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Sierra Pettengill
+</t>
+  </si>
+  <si>
+    <t>Sara Archambault,Michael Y. Chow,Charlotte Cook,Grace Lay,Liz Yong Lowe,Sumalee Montano,Jonathan Rapoport,Sue Turley,Jamila Wignot</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Jared Drake
+</t>
+  </si>
+  <si>
+    <t>Julian Scherle</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Declan McGrath
+</t>
+  </si>
+  <si>
+    <t>Justin Binding,Jackie Doyle,Hannah Kelly,Declan McGrath,Céline Nusse,Hanne Phlypo,David Rane</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Patricio Guzmán
+</t>
+  </si>
+  <si>
+    <t>José Miguel Miranda,Miguel Miranda,José Miguel Tobar</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Rita Baghdadi
+</t>
+  </si>
+  <si>
+    <t>Rita Baghdadi,Danielle Renfrew Behrens,John Boccardo,Derek Esplin,Kathryn Everett,Camilla Hall,Jeremiah Hammerling,Cindy Holland,Alex Lieberman,Gary Lieberman,Natasha Lyonne,Thalia Mavros,Tatiana Maxwell,Bryn Mooser,Mona Panchal,Maya Rudolph,Jyoti Sarda,Jennifer Tiexiera</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Mark Cousins
+</t>
+  </si>
+  <si>
+    <t>Jack Archer,John Archer,Clara Glynn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Gina Prince-Bythewood</t>
+  </si>
+  <si>
+    <t>The Woman King</t>
+  </si>
+  <si>
+    <t>Maria Bello,Dale Butler,Viola Davis,Peter McAleese,Cathy Schulman,Julius Tennon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TriStar Pictures </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="2">
+    <numFmt numFmtId="6" formatCode="&quot;$&quot;#,##0;[Red]\-&quot;$&quot;#,##0"/>
+    <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
+  </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -75,8 +977,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="6" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -357,37 +1264,1249 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A5"/>
+  <dimension ref="A1:F62"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="20" customWidth="1"/>
+    <col min="4" max="4" width="9.42578125" customWidth="1"/>
+    <col min="5" max="5" width="31.5703125" customWidth="1"/>
+    <col min="6" max="6" width="17.28515625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="E1" t="s">
         <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="B2" t="s">
+        <v>243</v>
+      </c>
+      <c r="C2" s="3">
+        <v>59746000</v>
+      </c>
+      <c r="D2" s="3">
+        <v>76546000</v>
+      </c>
+      <c r="E2" t="s">
+        <v>244</v>
+      </c>
+      <c r="F2" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="B3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="2">
+        <v>42403000</v>
+      </c>
+      <c r="D3" s="2">
+        <v>78203000</v>
+      </c>
+      <c r="E3" t="s">
+        <v>127</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="B4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="2">
+        <v>38961777</v>
+      </c>
+      <c r="D4" s="2">
+        <v>40643585</v>
+      </c>
+      <c r="E4" t="s">
+        <v>129</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="B5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="2">
+        <v>71168000</v>
+      </c>
+      <c r="D5" s="2">
+        <v>137568000</v>
+      </c>
+      <c r="E5" t="s">
+        <v>6</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="90" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="B6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" s="2">
+        <v>24714024</v>
+      </c>
+      <c r="D6" s="2">
+        <v>74661611</v>
+      </c>
+      <c r="E6" t="s">
+        <v>131</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" s="2">
+        <v>10836000</v>
+      </c>
+      <c r="D7" s="2">
+        <v>10836000</v>
+      </c>
+      <c r="E7" t="s">
+        <v>141</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="B8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" s="2">
+        <v>9321593</v>
+      </c>
+      <c r="D8" s="2">
+        <v>13850993</v>
+      </c>
+      <c r="E8" t="s">
+        <v>133</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="B9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9" s="2">
+        <v>9311420</v>
+      </c>
+      <c r="D9" s="2">
+        <v>19143169</v>
+      </c>
+      <c r="E9" t="s">
+        <v>137</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="B10" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10" s="2">
+        <v>9235006</v>
+      </c>
+      <c r="D10" s="2">
+        <v>9235006</v>
+      </c>
+      <c r="E10" t="s">
+        <v>135</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="B11" t="s">
+        <v>21</v>
+      </c>
+      <c r="C11" s="2">
+        <v>7839108</v>
+      </c>
+      <c r="D11" s="2">
+        <v>49958766</v>
+      </c>
+      <c r="E11" t="s">
+        <v>139</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="90" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="B12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" s="2">
+        <v>5100765</v>
+      </c>
+      <c r="D12" s="2">
+        <v>5628010</v>
+      </c>
+      <c r="E12" t="s">
+        <v>143</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="B13" t="s">
+        <v>27</v>
+      </c>
+      <c r="C13" s="2">
+        <v>5021114</v>
+      </c>
+      <c r="D13" s="2">
+        <v>5021114</v>
+      </c>
+      <c r="E13" t="s">
+        <v>145</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="B14" t="s">
+        <v>29</v>
+      </c>
+      <c r="C14" s="2">
+        <v>4282000</v>
+      </c>
+      <c r="D14" s="2">
+        <v>20843701</v>
+      </c>
+      <c r="E14" t="s">
+        <v>147</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="B15" t="s">
+        <v>31</v>
+      </c>
+      <c r="C15" s="2">
+        <v>4039715</v>
+      </c>
+      <c r="D15" s="2">
+        <v>10669715</v>
+      </c>
+      <c r="E15" t="s">
+        <v>229</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="90" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="B16" t="s">
+        <v>33</v>
+      </c>
+      <c r="C16" s="2">
+        <v>3104992</v>
+      </c>
+      <c r="D16" s="2">
+        <v>3104992</v>
+      </c>
+      <c r="E16" t="s">
+        <v>149</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="B17" t="s">
+        <v>35</v>
+      </c>
+      <c r="C17" s="2">
+        <v>2561270</v>
+      </c>
+      <c r="D17" s="2">
+        <v>2561270</v>
+      </c>
+      <c r="E17" t="s">
+        <v>151</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="B18" t="s">
+        <v>37</v>
+      </c>
+      <c r="C18" s="2">
+        <v>2275523</v>
+      </c>
+      <c r="D18" s="2">
+        <v>2275523</v>
+      </c>
+      <c r="E18" t="s">
+        <v>153</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="B19" t="s">
+        <v>39</v>
+      </c>
+      <c r="C19" s="2">
+        <v>2033057</v>
+      </c>
+      <c r="D19" s="2">
+        <v>4101576</v>
+      </c>
+      <c r="E19" t="s">
+        <v>155</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="B20" t="s">
+        <v>43</v>
+      </c>
+      <c r="C20" s="2">
+        <v>1589362</v>
+      </c>
+      <c r="D20" s="2">
+        <v>7423384</v>
+      </c>
+      <c r="E20" t="s">
+        <v>159</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="B21" t="s">
+        <v>47</v>
+      </c>
+      <c r="C21" s="2">
+        <v>1374325</v>
+      </c>
+      <c r="D21" s="2">
+        <v>3456642</v>
+      </c>
+      <c r="E21" t="s">
+        <v>163</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="B22" t="s">
+        <v>45</v>
+      </c>
+      <c r="C22" s="2">
+        <v>1445996</v>
+      </c>
+      <c r="D22" s="2">
+        <v>1445996</v>
+      </c>
+      <c r="E22" t="s">
+        <v>161</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="B23" t="s">
+        <v>41</v>
+      </c>
+      <c r="C23" s="2">
+        <v>2012247</v>
+      </c>
+      <c r="D23" s="2">
+        <v>2019805</v>
+      </c>
+      <c r="E23" t="s">
+        <v>157</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="105" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="B24" t="s">
+        <v>49</v>
+      </c>
+      <c r="C24" s="2">
+        <v>1212525</v>
+      </c>
+      <c r="D24" s="2">
+        <v>1321680</v>
+      </c>
+      <c r="E24" t="s">
+        <v>165</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="B25" t="s">
+        <v>51</v>
+      </c>
+      <c r="C25" s="2">
+        <v>1072750</v>
+      </c>
+      <c r="D25" s="2">
+        <v>18920428</v>
+      </c>
+      <c r="E25" t="s">
+        <v>167</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="B26" t="s">
+        <v>53</v>
+      </c>
+      <c r="C26" s="2">
+        <v>794943</v>
+      </c>
+      <c r="D26" s="2">
+        <v>905548</v>
+      </c>
+      <c r="E26" t="s">
+        <v>169</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="90" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="B27" t="s">
+        <v>55</v>
+      </c>
+      <c r="C27" s="2">
+        <v>643828</v>
+      </c>
+      <c r="D27" s="2">
+        <v>643828</v>
+      </c>
+      <c r="E27" t="s">
+        <v>171</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="B28" t="s">
+        <v>59</v>
+      </c>
+      <c r="C28" s="2">
+        <v>538842</v>
+      </c>
+      <c r="D28" s="2">
+        <v>538842</v>
+      </c>
+      <c r="E28" t="s">
+        <v>175</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" ht="90" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="B29" t="s">
+        <v>57</v>
+      </c>
+      <c r="C29" s="2">
+        <v>568416</v>
+      </c>
+      <c r="D29" s="2">
+        <v>2008465</v>
+      </c>
+      <c r="E29" t="s">
+        <v>173</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="B30" t="s">
+        <v>61</v>
+      </c>
+      <c r="C30" s="2">
+        <v>492903</v>
+      </c>
+      <c r="D30" s="2">
+        <v>492903</v>
+      </c>
+      <c r="E30" t="s">
+        <v>177</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="A31" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="B31" t="s">
+        <v>63</v>
+      </c>
+      <c r="C31" s="2">
+        <v>445343</v>
+      </c>
+      <c r="D31" s="2">
+        <v>4206484</v>
+      </c>
+      <c r="E31" t="s">
+        <v>179</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="A32" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="B32" t="s">
+        <v>65</v>
+      </c>
+      <c r="C32" s="2">
+        <v>398300</v>
+      </c>
+      <c r="D32" s="2">
+        <v>398300</v>
+      </c>
+      <c r="E32" t="s">
+        <v>181</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="A33" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="B33" t="s">
+        <v>67</v>
+      </c>
+      <c r="C33" s="2">
+        <v>236153</v>
+      </c>
+      <c r="D33" s="2">
+        <v>236153</v>
+      </c>
+      <c r="E33" t="s">
+        <v>183</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" ht="90" x14ac:dyDescent="0.25">
+      <c r="A34" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="B34" t="s">
+        <v>68</v>
+      </c>
+      <c r="C34" s="2">
+        <v>205135</v>
+      </c>
+      <c r="D34" s="2">
+        <v>205135</v>
+      </c>
+      <c r="E34" t="s">
+        <v>185</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A35" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="B35" t="s">
+        <v>70</v>
+      </c>
+      <c r="C35" s="2">
+        <v>151292</v>
+      </c>
+      <c r="D35" s="2">
+        <v>151292</v>
+      </c>
+      <c r="E35" t="s">
+        <v>187</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A36" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="B36" t="s">
+        <v>72</v>
+      </c>
+      <c r="C36" s="2">
+        <v>86610</v>
+      </c>
+      <c r="D36" s="2">
+        <v>86610</v>
+      </c>
+      <c r="E36" t="s">
+        <v>189</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A37" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="B37" t="s">
+        <v>74</v>
+      </c>
+      <c r="C37" s="2">
+        <v>86203</v>
+      </c>
+      <c r="D37" s="2">
+        <v>86203</v>
+      </c>
+      <c r="E37" t="s">
+        <v>191</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="A38" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="B38" t="s">
+        <v>76</v>
+      </c>
+      <c r="C38" s="2">
+        <v>66581</v>
+      </c>
+      <c r="D38" s="2">
+        <v>66581</v>
+      </c>
+      <c r="E38" t="s">
+        <v>193</v>
+      </c>
+      <c r="F38" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="A39" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="B39" t="s">
+        <v>78</v>
+      </c>
+      <c r="C39" s="2">
+        <v>61942</v>
+      </c>
+      <c r="D39" s="2">
+        <v>903474</v>
+      </c>
+      <c r="E39" t="s">
+        <v>195</v>
+      </c>
+      <c r="F39" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A40" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="B40" t="s">
+        <v>80</v>
+      </c>
+      <c r="C40" s="2">
+        <v>47033</v>
+      </c>
+      <c r="D40" s="2">
+        <v>62987</v>
+      </c>
+      <c r="E40" t="s">
+        <v>197</v>
+      </c>
+      <c r="F40" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" ht="90" x14ac:dyDescent="0.25">
+      <c r="A41" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="B41" t="s">
+        <v>82</v>
+      </c>
+      <c r="C41" s="2">
+        <v>45916</v>
+      </c>
+      <c r="D41" s="2">
+        <v>1467108</v>
+      </c>
+      <c r="E41" t="s">
+        <v>199</v>
+      </c>
+      <c r="F41" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A42" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="B42" t="s">
+        <v>84</v>
+      </c>
+      <c r="C42" s="2">
+        <v>41222</v>
+      </c>
+      <c r="D42" s="2">
+        <v>41886</v>
+      </c>
+      <c r="E42" t="s">
+        <v>201</v>
+      </c>
+      <c r="F42" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" ht="90" x14ac:dyDescent="0.25">
+      <c r="A43" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="B43" t="s">
+        <v>86</v>
+      </c>
+      <c r="C43" s="2">
+        <v>34413</v>
+      </c>
+      <c r="D43" s="2">
+        <v>34413</v>
+      </c>
+      <c r="E43" t="s">
+        <v>203</v>
+      </c>
+      <c r="F43" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A44" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="B44" t="s">
+        <v>88</v>
+      </c>
+      <c r="C44" s="2">
+        <v>31493</v>
+      </c>
+      <c r="D44" s="2">
+        <v>31814</v>
+      </c>
+      <c r="E44" t="s">
+        <v>205</v>
+      </c>
+      <c r="F44" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="A45" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="B45" t="s">
+        <v>90</v>
+      </c>
+      <c r="C45" s="2">
+        <v>31362</v>
+      </c>
+      <c r="D45" s="2">
+        <v>31362</v>
+      </c>
+      <c r="E45" t="s">
+        <v>231</v>
+      </c>
+      <c r="F45" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A46" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="B46" t="s">
+        <v>92</v>
+      </c>
+      <c r="C46" s="2">
+        <v>30310</v>
+      </c>
+      <c r="D46" s="2">
+        <v>30310</v>
+      </c>
+      <c r="E46" t="s">
+        <v>233</v>
+      </c>
+      <c r="F46" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A47" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="B47" t="s">
+        <v>94</v>
+      </c>
+      <c r="C47" s="2">
+        <v>29763</v>
+      </c>
+      <c r="D47" s="2">
+        <v>29763</v>
+      </c>
+      <c r="E47" t="s">
+        <v>207</v>
+      </c>
+      <c r="F47" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" ht="90" x14ac:dyDescent="0.25">
+      <c r="A48" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="B48" t="s">
+        <v>96</v>
+      </c>
+      <c r="C48" s="2">
+        <v>27398</v>
+      </c>
+      <c r="D48" s="2">
+        <v>134744</v>
+      </c>
+      <c r="E48" t="s">
+        <v>209</v>
+      </c>
+      <c r="F48" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="A49" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="B49" t="s">
+        <v>98</v>
+      </c>
+      <c r="C49" s="2">
+        <v>25400</v>
+      </c>
+      <c r="D49" s="2">
+        <v>25400</v>
+      </c>
+      <c r="E49" t="s">
+        <v>211</v>
+      </c>
+      <c r="F49" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="A50" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="B50" t="s">
+        <v>100</v>
+      </c>
+      <c r="C50" s="2">
+        <v>24376</v>
+      </c>
+      <c r="D50" s="2">
+        <v>41016</v>
+      </c>
+      <c r="E50" t="s">
+        <v>235</v>
+      </c>
+      <c r="F50" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" ht="165" x14ac:dyDescent="0.25">
+      <c r="A51" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="B51" t="s">
+        <v>102</v>
+      </c>
+      <c r="C51" s="2">
+        <v>23617</v>
+      </c>
+      <c r="D51" s="2">
+        <v>23617</v>
+      </c>
+      <c r="E51" t="s">
+        <v>213</v>
+      </c>
+      <c r="F51" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="A52" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="B52" t="s">
+        <v>104</v>
+      </c>
+      <c r="C52" s="2">
+        <v>10877</v>
+      </c>
+      <c r="D52" s="2">
+        <v>10877</v>
+      </c>
+      <c r="E52" t="s">
+        <v>237</v>
+      </c>
+      <c r="F52" s="1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A53" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="B53" t="s">
+        <v>106</v>
+      </c>
+      <c r="C53" s="2">
+        <v>8950</v>
+      </c>
+      <c r="D53" s="2">
+        <v>8950</v>
+      </c>
+      <c r="E53" t="s">
+        <v>239</v>
+      </c>
+      <c r="F53" s="1" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="A54" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="B54" t="s">
+        <v>107</v>
+      </c>
+      <c r="C54" s="2">
+        <v>8688</v>
+      </c>
+      <c r="D54" s="2">
+        <v>524102</v>
+      </c>
+      <c r="E54" t="s">
+        <v>215</v>
+      </c>
+      <c r="F54" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A55" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="B55" t="s">
+        <v>109</v>
+      </c>
+      <c r="C55" s="2">
+        <v>8566</v>
+      </c>
+      <c r="D55" s="2">
+        <v>8566</v>
+      </c>
+      <c r="E55" t="s">
+        <v>217</v>
+      </c>
+      <c r="F55" s="1" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A56" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="B56" t="s">
+        <v>111</v>
+      </c>
+      <c r="C56" s="2">
+        <v>5778</v>
+      </c>
+      <c r="D56" s="2">
+        <v>19146</v>
+      </c>
+      <c r="E56" t="s">
+        <v>241</v>
+      </c>
+      <c r="F56" s="1" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A57" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="B57" t="s">
+        <v>113</v>
+      </c>
+      <c r="C57" s="2">
+        <v>5078</v>
+      </c>
+      <c r="D57" s="2">
+        <v>5078</v>
+      </c>
+      <c r="E57" t="s">
+        <v>219</v>
+      </c>
+      <c r="F57" s="1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A58" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="B58" t="s">
+        <v>115</v>
+      </c>
+      <c r="C58" s="2">
+        <v>3927</v>
+      </c>
+      <c r="D58" s="2">
+        <v>3927</v>
+      </c>
+      <c r="E58" t="s">
+        <v>221</v>
+      </c>
+      <c r="F58" s="1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A59" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="B59" t="s">
+        <v>117</v>
+      </c>
+      <c r="C59" s="2">
+        <v>3475</v>
+      </c>
+      <c r="D59" s="2">
+        <v>3475</v>
+      </c>
+      <c r="E59" t="s">
+        <v>223</v>
+      </c>
+      <c r="F59" s="1" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" ht="90" x14ac:dyDescent="0.25">
+      <c r="A60" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="B60" t="s">
+        <v>119</v>
+      </c>
+      <c r="C60" s="2">
+        <v>3364</v>
+      </c>
+      <c r="D60" s="2">
+        <v>3364</v>
+      </c>
+      <c r="E60" t="s">
+        <v>225</v>
+      </c>
+      <c r="F60" s="1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" ht="90" x14ac:dyDescent="0.25">
+      <c r="A61" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="B61" t="s">
+        <v>121</v>
+      </c>
+      <c r="C61" s="2">
+        <v>3059</v>
+      </c>
+      <c r="D61" s="2">
+        <v>3059</v>
+      </c>
+      <c r="E61" t="s">
+        <v>227</v>
+      </c>
+      <c r="F61" s="1" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B62" t="s">
+        <v>123</v>
+      </c>
+      <c r="C62" s="2">
+        <v>1996</v>
+      </c>
+      <c r="D62" s="2">
+        <v>1996</v>
       </c>
     </row>
   </sheetData>
